--- a/DSA450/DSFINAL450.xlsx
+++ b/DSA450/DSFINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1874,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2718,7 +2721,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
@@ -2729,7 +2732,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
@@ -2740,7 +2743,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
@@ -2751,7 +2754,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
@@ -2762,7 +2765,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
@@ -2773,7 +2776,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
@@ -2795,7 +2798,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
@@ -2817,7 +2820,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">

--- a/DSA450/DSFINAL450.xlsx
+++ b/DSA450/DSFINAL450.xlsx
@@ -1867,7 +1867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2831,7 +2831,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
@@ -2842,7 +2842,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
@@ -2924,7 +2924,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2935,7 +2935,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2946,7 +2946,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2957,7 +2957,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2968,7 +2968,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -3001,7 +3001,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -3012,7 +3012,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -3023,7 +3023,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
@@ -3045,7 +3045,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3056,7 +3056,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
@@ -3078,7 +3078,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3089,7 +3089,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3122,7 +3122,7 @@
         <v>116</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
@@ -3166,7 +3166,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">

--- a/DSA450/DSFINAL450.xlsx
+++ b/DSA450/DSFINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1446,6 +1446,18 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YES,With Mind</t>
+  </si>
+  <si>
+    <t>Similar to merge Sort</t>
+  </si>
+  <si>
+    <t>YesSElf</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1877,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -3188,7 +3200,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
@@ -3199,7 +3211,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
@@ -3221,7 +3233,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">
@@ -3232,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
@@ -3254,7 +3266,7 @@
         <v>128</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
@@ -3265,7 +3277,7 @@
         <v>129</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
@@ -3287,7 +3299,7 @@
         <v>131</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>4</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
@@ -3298,7 +3310,7 @@
         <v>132</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21">
@@ -3335,7 +3347,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3346,7 +3358,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3357,7 +3369,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3368,7 +3380,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3379,7 +3391,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3390,7 +3402,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3412,7 +3424,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3423,7 +3435,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3434,7 +3446,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">

--- a/DSA450/DSFINAL450.xlsx
+++ b/DSA450/DSFINAL450.xlsx
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2524,7 +2524,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
@@ -3457,7 +3457,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -5623,7 +5623,7 @@
         <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5634,7 +5634,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">

--- a/DSA450/DSFINAL450.xlsx
+++ b/DSA450/DSFINAL450.xlsx
@@ -1879,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -2121,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">

--- a/DSA450/DSFINAL450.xlsx
+++ b/DSA450/DSFINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t>YesSElf</t>
+  </si>
+  <si>
+    <t>Yes, Similar to knapsack</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1889,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -6189,7 +6192,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>477</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6200,7 +6203,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6211,7 +6214,7 @@
         <v>396</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
